--- a/Clustering/6 cluster type.xlsx
+++ b/Clustering/6 cluster type.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qing/Documents/GitHub/fall_3_orange_hw2/Clustering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B957C933-69E7-0842-92BF-EEECE6ADC219}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CB9728-208A-2F49-892B-8913F6EDED5C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{7736CD9F-FCC9-CC48-9E2B-4A7E5E8B33EC}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="15940" activeTab="1" xr2:uid="{7736CD9F-FCC9-CC48-9E2B-4A7E5E8B33EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Clus1</t>
   </si>
@@ -100,13 +101,90 @@
   </si>
   <si>
     <t>2. bad reviews +good location + price: cluster 3</t>
+  </si>
+  <si>
+    <t>Average Distance to Attractions</t>
+  </si>
+  <si>
+    <t>Average Sentiment</t>
+  </si>
+  <si>
+    <t>Price per Bed</t>
+  </si>
+  <si>
+    <t># of Listings</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Popularity
+(average # of Nights rented)2</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Far</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close </t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Cheaper</t>
+  </si>
+  <si>
+    <t>Expensive</t>
+  </si>
+  <si>
+    <t>Segment 1
+(Sets the bar)</t>
+  </si>
+  <si>
+    <t>Segment 2
+(I'll take Uber)</t>
+  </si>
+  <si>
+    <t>Segment 3
+(I hate Uber, I'll pay to live close)</t>
+  </si>
+  <si>
+    <t>Segment 4
+(You don't want to be like this)</t>
+  </si>
+  <si>
+    <t>Segment 5
+(I'm rich but not satisfied!)</t>
+  </si>
+  <si>
+    <t>Segment 6
+(Most desired by review)</t>
+  </si>
+  <si>
+    <t>Very Expensive</t>
+  </si>
+  <si>
+    <t>Somewhat Far</t>
+  </si>
+  <si>
+    <t>Popularity
+(Average # of Nights Rented)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,8 +208,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,8 +235,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4D9FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDEBBB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -159,11 +262,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -171,12 +385,319 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCDEBBB"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFB4D9FD"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCDEBBB"/>
+      <color rgb="FFB4D9FD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -186,6 +707,81 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>393700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F1D56E-F7F9-2548-9FEE-D49697A369E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6388100" y="3200400"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D39009E-FE1D-F64E-AC49-C66BCE7AA749}" name="Table1" displayName="Table1" ref="A1:G7" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{D273E52D-25FB-0A49-BEC8-4468C653287D}" name=" " dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C7249591-01F4-6C4E-A76D-7EBA48446B4D}" name="Average Distance to Attractions" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{3259EEDC-A32D-7141-98B5-EB514074791E}" name="Average Sentiment" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{BF6448F2-0BD0-5741-885D-20441F4D0058}" name="Price per Bed" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{E785E718-99E4-A945-AB39-848552EFCB9E}" name="# of Listings" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{36DBAADC-28A5-F544-8B3D-EC6018DF413C}" name="Popularity_x000a_(Average # of Nights Rented)" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{0160C955-C8DC-8E4C-B210-C2E43CEB3BA8}" name="Popularity_x000a_(average # of Nights rented)2" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474FD8CB-3CEC-DD4C-BE9F-A1D252149A05}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,4 +1328,200 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF9DBC3-86B6-C04F-9F3E-60EF84717461}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="54" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1388</v>
+      </c>
+      <c r="F2" s="22">
+        <v>172.97</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="23">
+        <v>150</v>
+      </c>
+      <c r="F3" s="24">
+        <v>133.41</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="21">
+        <v>379</v>
+      </c>
+      <c r="F4" s="22">
+        <v>156.79</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="23">
+        <v>61</v>
+      </c>
+      <c r="F5" s="24">
+        <v>156.58000000000001</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="21">
+        <v>4</v>
+      </c>
+      <c r="F6" s="22">
+        <v>38</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" ht="36" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="27">
+        <v>34</v>
+      </c>
+      <c r="F7" s="29">
+        <v>221.53</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G11" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G13" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G15" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>